--- a/roadmaps/BSCySec.xlsx
+++ b/roadmaps/BSCySec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/037c70bc1895faa0/Desktop/tts_v2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/037c70bc1895faa0/Desktop/tts_v2/roadmaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEDB590-7BD3-484E-AB56-BBE4DED7816D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4DEDB590-7BD3-484E-AB56-BBE4DED7816D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABDAC333-9EE2-430F-9E67-0647A51708FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{87A0739E-9DDF-4281-ABA8-6FF572A3EC14}"/>
+    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{87A0739E-9DDF-4281-ABA8-6FF572A3EC14}"/>
   </bookViews>
   <sheets>
     <sheet name="Roadmap" sheetId="1" r:id="rId1"/>
@@ -339,33 +339,9 @@
     <t>room_type</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>theory</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
     <t>Lab1</t>
   </si>
   <si>
@@ -400,13 +376,37 @@
   </si>
   <si>
     <t>student_count</t>
+  </si>
+  <si>
+    <t>CySec_Room1</t>
+  </si>
+  <si>
+    <t>CySec_Room2</t>
+  </si>
+  <si>
+    <t>CySec_Room3</t>
+  </si>
+  <si>
+    <t>CySec_Room4</t>
+  </si>
+  <si>
+    <t>CySec_Room5</t>
+  </si>
+  <si>
+    <t>CySec_Room6</t>
+  </si>
+  <si>
+    <t>CySec_Room7</t>
+  </si>
+  <si>
+    <t>CySec_Room8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +537,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -941,10 +947,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1266,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA6367C-09F5-4C63-9AB0-21ED56C875E1}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2134,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCCC8E1-028F-42C1-A75D-5C4F72B6CC33}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2150,149 +2152,150 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2312,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
